--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAF4DF2B-8849-4250-A75C-822DC0141A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0A1527-2D76-46CC-8D54-F30385C9F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3310,7 +3310,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0A1527-2D76-46CC-8D54-F30385C9F8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A762D63-1373-4E60-81FD-D644FDD98E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打卡模板" sheetId="38" r:id="rId1"/>
@@ -18,7 +18,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +287,13 @@
   </si>
   <si>
     <t>没有思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200. 岛屿数量</t>
+  </si>
+  <si>
+    <t>广度优先搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,18 +469,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +489,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -503,303 +509,20 @@
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="56">
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00AF9B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFB800"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -816,6 +539,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -841,16 +576,290 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00AF9B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFB800"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1886,22 +1895,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{611C8794-E25B-42A9-9024-CDD385B22DA0}" name="表1" displayName="表1" ref="A1:M31" totalsRowShown="0" headerRowDxfId="50" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{611C8794-E25B-42A9-9024-CDD385B22DA0}" name="表1" displayName="表1" ref="A1:M31" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:M31" xr:uid="{611C8794-E25B-42A9-9024-CDD385B22DA0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0CAD7DA0-4605-4874-A3BA-D3F3507C1A2D}" name="日期" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{0CAD7DA0-4605-4874-A3BA-D3F3507C1A2D}" name="日期" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{C1555325-C5EA-41D9-8C3E-90802AE36C39}" name="题目"/>
-    <tableColumn id="3" xr3:uid="{B097CDDD-82D2-42A1-A082-E549183C59A2}" name="难度" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{B097CDDD-82D2-42A1-A082-E549183C59A2}" name="难度" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{D1B7DA70-CBCD-4CA2-AD9C-E524B8DDF94F}" name="解题情况"/>
-    <tableColumn id="5" xr3:uid="{B38F43FA-5AF3-4CD5-A036-548F983E4D89}" name="耗时/min" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{B38F43FA-5AF3-4CD5-A036-548F983E4D89}" name="耗时/min" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{7332D767-CB8E-4128-ACB7-56636F46859E}" name="算法与数据结构"/>
-    <tableColumn id="7" xr3:uid="{F7CE8BA9-F520-4E24-946C-4999F6967B2D}" name="状态" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{60BC3297-3C86-4A43-AA50-030CF20B76E7}" name="状态2" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{F87A1A4E-E05C-4544-8063-8D7BC21D4659}" name="是否需要重做？" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{326B108C-FA01-4EFF-A707-9852A8D9EF80}" name="重做次数" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{A2FE2F63-2446-4561-8BAD-BE67EB5B45C3}" name="备注" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{364E823D-F0B9-49A7-B9D2-9C46E5204069}" name="新的知识" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{91AD4DA1-7F2D-4AA2-AF95-DCE18E4C4AFD}" name="复习知识" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{F7CE8BA9-F520-4E24-946C-4999F6967B2D}" name="状态" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{60BC3297-3C86-4A43-AA50-030CF20B76E7}" name="状态2" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{F87A1A4E-E05C-4544-8063-8D7BC21D4659}" name="是否需要重做？" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{326B108C-FA01-4EFF-A707-9852A8D9EF80}" name="重做次数" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A2FE2F63-2446-4561-8BAD-BE67EB5B45C3}" name="备注" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{364E823D-F0B9-49A7-B9D2-9C46E5204069}" name="新的知识" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{91AD4DA1-7F2D-4AA2-AF95-DCE18E4C4AFD}" name="复习知识" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1911,10 +1920,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C9F6A96-BC82-452A-B574-B8ED5314166D}" name="表2" displayName="表2" ref="A1:J1048576" totalsRowShown="0">
   <autoFilter ref="A1:J1048576" xr:uid="{2C9F6A96-BC82-452A-B574-B8ED5314166D}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{37877EC6-83D5-47E5-B971-E830D4D5A83F}" name="刷题日期"/>
+    <tableColumn id="1" xr3:uid="{37877EC6-83D5-47E5-B971-E830D4D5A83F}" name="刷题日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{46CF53C1-1AEF-48CA-8739-E77F7CC2E238}" name="题目"/>
-    <tableColumn id="3" xr3:uid="{C8DF82C6-6D9F-41E0-9880-36E8B5F0D354}" name="开始时间" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{E56B3ABB-9234-4CD0-88DA-84A725B4F5FB}" name="结束时间" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{C8DF82C6-6D9F-41E0-9880-36E8B5F0D354}" name="开始时间" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E56B3ABB-9234-4CD0-88DA-84A725B4F5FB}" name="结束时间" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{9C20EB8A-94F4-4342-A97C-761D83293BCB}" name="耗时"/>
     <tableColumn id="6" xr3:uid="{CCE12192-AACB-4979-A34A-1677821B69E7}" name="通过情况"/>
     <tableColumn id="7" xr3:uid="{C0A1E1B7-3E60-4590-A161-61A2788D6BEF}" name="提交次数"/>
@@ -2253,24 +2262,24 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44531</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44532</v>
       </c>
@@ -2385,7 +2394,7 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44533</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44534</v>
       </c>
@@ -2451,7 +2460,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44535</v>
       </c>
@@ -2478,7 +2487,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44536</v>
       </c>
@@ -2505,7 +2514,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44537</v>
       </c>
@@ -2532,7 +2541,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44538</v>
       </c>
@@ -2563,7 +2572,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44539</v>
       </c>
@@ -2590,7 +2599,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44540</v>
       </c>
@@ -2603,7 +2612,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44541</v>
       </c>
@@ -2616,7 +2625,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44542</v>
       </c>
@@ -2629,7 +2638,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44543</v>
       </c>
@@ -2642,7 +2651,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44544</v>
       </c>
@@ -2655,7 +2664,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44545</v>
       </c>
@@ -2668,7 +2677,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44546</v>
       </c>
@@ -2681,7 +2690,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44547</v>
       </c>
@@ -2694,7 +2703,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44548</v>
       </c>
@@ -2707,7 +2716,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44549</v>
       </c>
@@ -2720,7 +2729,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44550</v>
       </c>
@@ -2733,7 +2742,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44551</v>
       </c>
@@ -2746,7 +2755,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44552</v>
       </c>
@@ -2759,7 +2768,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44553</v>
       </c>
@@ -2772,7 +2781,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44554</v>
       </c>
@@ -2785,7 +2794,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44555</v>
       </c>
@@ -2798,7 +2807,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44556</v>
       </c>
@@ -2811,7 +2820,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44557</v>
       </c>
@@ -2824,7 +2833,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44558</v>
       </c>
@@ -2837,7 +2846,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44559</v>
       </c>
@@ -2850,7 +2859,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44560</v>
       </c>
@@ -2863,7 +2872,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44561</v>
       </c>
@@ -2875,23 +2884,23 @@
       <c r="K32" s="2"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="16"/>
+      <c r="D35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="16"/>
       <c r="G35" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2906,12 +2915,12 @@
         <f>COUNTIF(D2:D32,"通过")</f>
         <v>5</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="17">
         <f>ROUND(AVERAGE(E2:E32), 0)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2926,9 +2935,9 @@
         <f>COUNTIF(D2:D32,"超时通过")</f>
         <v>2</v>
       </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2943,9 +2952,9 @@
         <f>COUNTIF(D2:D32,"提示后通过")</f>
         <v>1</v>
       </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="D39" t="s">
         <v>8</v>
@@ -2954,131 +2963,131 @@
         <f>COUNTIF(D2:D32,"CV-未通过")</f>
         <v>1</v>
       </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -3091,178 +3100,178 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1 C46:C1048576 C37:C39 C6:C31">
-    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E31">
-    <cfRule type="cellIs" dxfId="37" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="36" priority="58">
+    <cfRule type="expression" dxfId="51" priority="58">
       <formula>$H32="待巩固"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="35" priority="56">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>$J32="待学习"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I31">
-    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="expression" dxfId="29" priority="50">
+    <cfRule type="expression" dxfId="44" priority="50">
       <formula>$H32="待巩固"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:J32">
-    <cfRule type="expression" dxfId="28" priority="49">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>$J32="待学习"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="27" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"困难"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"简单"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND($K32="是",$L32=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>AND($K32="是",$L32&lt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31 L2:L31">
-    <cfRule type="expression" dxfId="4" priority="64">
+    <cfRule type="expression" dxfId="19" priority="64">
       <formula>$G2="待巩固"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31 M2:M31">
-    <cfRule type="expression" dxfId="3" priority="65">
+    <cfRule type="expression" dxfId="18" priority="65">
       <formula>$H2="待学习"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="expression" dxfId="2" priority="68">
+    <cfRule type="expression" dxfId="17" priority="68">
       <formula>AND($I2="是",$J2=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="expression" dxfId="1" priority="70">
+    <cfRule type="expression" dxfId="16" priority="70">
       <formula>AND($I2="是",$J2&lt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3310,32 +3319,32 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="18"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E1" t="s">
@@ -3353,28 +3362,28 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44611.448159722226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>44611.454375000001</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>44611.483634259261</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <f>D2-C2</f>
         <v>2.9259259259561077E-2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G2">
@@ -3383,31 +3392,31 @@
       <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44611.448159722226</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>44611.490347222221</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>44611.492465277777</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E58" si="0">D3-C3</f>
         <v>2.118055555911269E-3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G3">
@@ -3416,336 +3425,360 @@
       <c r="H3" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E4" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E5" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E19" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E22" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E23" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E31" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E33" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E34" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E35" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E36" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E37" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E38" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E39" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E40" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E41" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E42" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E43" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E44" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E45" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E46" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E47" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E48" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E49" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E50" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E51" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E52" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E53" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E54" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E55" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E56" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E57" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E58" s="14">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44611.602546296293</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44611.604814814818</v>
+      </c>
+      <c r="D4" s="10">
+        <v>44611.62604166667</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1226851851679385E-2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3755,10 +3788,12 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3543C15F-AAD7-4F2B-ABE1-C087FC491538}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{677D77D0-2ADE-4F9E-90AB-B2810F42BF9D}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{E93195C9-F1C3-44A3-9273-6AC72DE327B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A762D63-1373-4E60-81FD-D644FDD98E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508496A1-A539-44C7-8AB0-7013F21988AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打卡模板" sheetId="38" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,25 @@
   </si>
   <si>
     <t>广度优先搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287. 寻找重复数</t>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次提交采用set，没有使用双指针..双指针不会！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是采用set，第一次提交没有注意入参判空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2262,24 +2281,24 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44531</v>
       </c>
@@ -2359,7 +2378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>44532</v>
       </c>
@@ -2394,7 +2413,7 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>44533</v>
       </c>
@@ -2431,7 +2450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>44534</v>
       </c>
@@ -2460,7 +2479,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>44535</v>
       </c>
@@ -2487,7 +2506,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>44536</v>
       </c>
@@ -2514,7 +2533,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>44537</v>
       </c>
@@ -2541,7 +2560,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>44538</v>
       </c>
@@ -2572,7 +2591,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>44539</v>
       </c>
@@ -2599,7 +2618,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>44540</v>
       </c>
@@ -2612,7 +2631,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>44541</v>
       </c>
@@ -2625,7 +2644,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>44542</v>
       </c>
@@ -2638,7 +2657,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>44543</v>
       </c>
@@ -2651,7 +2670,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>44544</v>
       </c>
@@ -2664,7 +2683,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>44545</v>
       </c>
@@ -2677,7 +2696,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>44546</v>
       </c>
@@ -2690,7 +2709,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>44547</v>
       </c>
@@ -2703,7 +2722,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>44548</v>
       </c>
@@ -2716,7 +2735,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>44549</v>
       </c>
@@ -2729,7 +2748,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>44550</v>
       </c>
@@ -2742,7 +2761,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>44551</v>
       </c>
@@ -2755,7 +2774,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>44552</v>
       </c>
@@ -2768,7 +2787,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>44553</v>
       </c>
@@ -2781,7 +2800,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>44554</v>
       </c>
@@ -2794,7 +2813,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>44555</v>
       </c>
@@ -2807,7 +2826,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>44556</v>
       </c>
@@ -2820,7 +2839,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>44557</v>
       </c>
@@ -2833,7 +2852,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>44558</v>
       </c>
@@ -2846,7 +2865,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>44559</v>
       </c>
@@ -2859,7 +2878,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>44560</v>
       </c>
@@ -2872,7 +2891,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>44561</v>
       </c>
@@ -2884,10 +2903,10 @@
       <c r="K32" s="2"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
@@ -2900,7 +2919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2920,7 +2939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2937,7 +2956,7 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +2973,7 @@
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="D39" t="s">
         <v>8</v>
@@ -2965,7 +2984,7 @@
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>5</v>
       </c>
@@ -2976,7 +2995,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -2985,7 +3004,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2994,7 +3013,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -3003,7 +3022,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -3012,82 +3031,82 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -3319,22 +3338,22 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3366,7 +3385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44611.448159722226</v>
       </c>
@@ -3399,7 +3418,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>44611.448159722226</v>
       </c>
@@ -3429,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>44611.602546296293</v>
       </c>
@@ -3459,325 +3478,379 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>44615.91238425926</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44615.914166666669</v>
+      </c>
+      <c r="D5" s="10">
+        <v>44615.918391203704</v>
+      </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.2245370350428857E-3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>44615.91238425926</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44615.926793981482</v>
+      </c>
+      <c r="D6" s="10">
+        <v>44615.94027777778</v>
+      </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.3483796297805384E-2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E39" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E40" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E41" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E42" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E43" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E44" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E46" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E47" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E48" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E49" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E50" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E51" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E53" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E54" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E55" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E56" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E57" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3789,11 +3862,13 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3543C15F-AAD7-4F2B-ABE1-C087FC491538}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{677D77D0-2ADE-4F9E-90AB-B2810F42BF9D}"/>
     <hyperlink ref="B4" r:id="rId3" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{E93195C9-F1C3-44A3-9273-6AC72DE327B1}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{95342FE8-1C29-4128-8169-E96AF72DDEF9}"/>
+    <hyperlink ref="B6" r:id="rId5" display="[142. 环形链表 II]" xr:uid="{B73003E4-9D3F-4E44-9F28-3C3758683D65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508496A1-A539-44C7-8AB0-7013F21988AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75180EAF-962C-4E3D-9CF7-6389070D0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,21 @@
   </si>
   <si>
     <t>也是采用set，第一次提交没有注意入参判空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1797. 设计一个验证系统</t>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1845. 座位预约管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3338,7 +3353,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3545,15 +3560,63 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>44619.925555555557</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44619.926481481481</v>
+      </c>
+      <c r="D7" s="10">
+        <v>44619.954837962963</v>
+      </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8356481481750961E-2</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>44619.925555555557</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44619.955833333333</v>
+      </c>
+      <c r="D8" s="10">
+        <v>44619.987719907411</v>
+      </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1886574077361729E-2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -3864,11 +3927,13 @@
     <hyperlink ref="B4" r:id="rId3" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{E93195C9-F1C3-44A3-9273-6AC72DE327B1}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{95342FE8-1C29-4128-8169-E96AF72DDEF9}"/>
     <hyperlink ref="B6" r:id="rId5" display="[142. 环形链表 II]" xr:uid="{B73003E4-9D3F-4E44-9F28-3C3758683D65}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{E1ADFF67-CA62-4602-ABFE-144CF0E95B9A}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{C2FB8723-B1B8-4F0C-ABD2-B8AB00412EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75180EAF-962C-4E3D-9CF7-6389070D0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31BAB15-6CFA-4B0D-8DE9-60CACD11EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1725" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打卡模板" sheetId="38" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,16 @@
   <si>
     <t>没有通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911. 在线选举</t>
+  </si>
+  <si>
+    <t>总结：else一定要想清楚逻辑，用例一定要多维度mock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1912. 设计电影租借系统</t>
   </si>
 </sst>
 </file>
@@ -3352,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5860EB1-A8F4-4F09-831B-AE73C76DDD06}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3620,15 +3630,66 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>44622.909143518518</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44622.911238425928</v>
+      </c>
+      <c r="D9" s="10">
+        <v>44622.967986111114</v>
+      </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6747685186564922E-2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>44622.909143518518</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44622.970034722224</v>
+      </c>
+      <c r="D10" s="10">
+        <v>44623.022465277776</v>
+      </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2430555551836733E-2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -3929,11 +3990,13 @@
     <hyperlink ref="B6" r:id="rId5" display="[142. 环形链表 II]" xr:uid="{B73003E4-9D3F-4E44-9F28-3C3758683D65}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{E1ADFF67-CA62-4602-ABFE-144CF0E95B9A}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{C2FB8723-B1B8-4F0C-ABD2-B8AB00412EBF}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{2A1CA1CA-0D29-4B35-9A0A-DD4FDD0E4031}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://leetcode-cn.com/problems/design-movie-rental-system/" xr:uid="{161C7AF8-1045-4B94-B48D-A74F06685EBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>